--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -11,6 +11,7 @@
     <sheet name="SignUp" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SignIn" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Profile" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ShareSkill" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t xml:space="preserve">FirstName</t>
   </si>
@@ -39,16 +40,16 @@
     <t xml:space="preserve">ConfirmPswd</t>
   </si>
   <si>
-    <t xml:space="preserve">Vidhya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venugan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vidhyav9@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ithika2015</t>
+    <t xml:space="preserve">felipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almeida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flpsilva1992@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mars447029</t>
   </si>
   <si>
     <t xml:space="preserve">Url</t>
@@ -57,21 +58,107 @@
     <t xml:space="preserve">Username</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.skillswap.pro/Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flpsilva1992@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mars447029</t>
+    <t xml:space="preserve">http://localhost:5000/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocationType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enddate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selectday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starttime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endtime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SkillTrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill-Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a Test Analyst who implements test designs as real test cases, test processes, and test data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hourly basis service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill-exchange </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA AnalystUpdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am a Test Analyst who implements test designs as real test cases, test processes, and test data. I also have experience in test automation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">automation </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY;@"/>
+    <numFmt numFmtId="166" formatCode="HH:MM:SS;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -105,7 +192,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,7 +202,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4F81BD"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor rgb="FF558ED5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF558ED5"/>
+        <bgColor rgb="FF4F81BD"/>
       </patternFill>
     </fill>
   </fills>
@@ -156,7 +249,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -167,6 +260,30 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -196,7 +313,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF558ED5"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -250,7 +367,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -280,7 +397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -299,7 +416,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="vidhyav9@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId1" display="flpsilva1992@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -319,7 +436,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -330,7 +447,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -341,7 +458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -354,9 +471,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://www.skillswap.pro/Home"/>
-    <hyperlink ref="B2" r:id="rId2" display="vidhyav9@gmail.com"/>
-    <hyperlink ref="C2" r:id="rId3" display="Ithika2015"/>
+    <hyperlink ref="B2" r:id="rId1" display="flpsilva1992@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -373,15 +488,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
@@ -393,27 +509,61 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -428,4 +578,162 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="114.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <v>44927</v>
+      </c>
+      <c r="I2" s="7" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="8" t="n">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>45292</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>45658</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>0.958333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ShareSkill" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="SignUp" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="SignIn" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Profile" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -200,7 +199,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,13 +209,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4F81BD"/>
-        <bgColor rgb="FF558ED5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF558ED5"/>
-        <bgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -257,7 +250,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -283,10 +276,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,7 +306,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF558ED5"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -370,7 +359,7 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -603,8 +592,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -649,91 +638,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="52.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.54"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>